--- a/plots/explanation_method_by_patient_by_input_type.xlsx
+++ b/plots/explanation_method_by_patient_by_input_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\literature_review\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11305C9D-DBAB-4E05-9582-88BB2B864941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39268A-8276-42F2-8AC6-BE0400FD7201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8619ACE-1305-42D3-B30B-A3DB9A5A58A4}"/>
   </bookViews>
@@ -39,12 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Understood by patients</t>
-  </si>
-  <si>
-    <t>Not understood by patients</t>
-  </si>
-  <si>
     <t>Tabular or Image data as input?</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>Tabular (includes EEG, ECG, time-series data)</t>
+  </si>
+  <si>
+    <t>Potentially understandable by patients</t>
+  </si>
+  <si>
+    <t>Not potentially understanably by patients</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Understood by patients</c:v>
+                  <c:v>Potentially understandable by patients</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -276,7 +276,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Not understood by patients</c:v>
+                  <c:v>Not potentially understanably by patients</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="131" zoomScaleNormal="109" zoomScaleSheetLayoutView="131" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1523,20 +1523,20 @@
     <col min="12" max="12" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>36</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="3" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>38</v>

--- a/plots/explanation_method_by_patient_by_input_type.xlsx
+++ b/plots/explanation_method_by_patient_by_input_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\literature_review\plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\literature_review\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39268A-8276-42F2-8AC6-BE0400FD7201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482D1A66-F99B-4988-91A6-6ECD2D45D5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8619ACE-1305-42D3-B30B-A3DB9A5A58A4}"/>
+    <workbookView xWindow="38280" yWindow="2235" windowWidth="29040" windowHeight="15720" xr2:uid="{F8619ACE-1305-42D3-B30B-A3DB9A5A58A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>Potentially understandable by patients</t>
   </si>
   <si>
-    <t>Not potentially understanably by patients</t>
+    <t>Not potentially understandable by patients</t>
   </si>
 </sst>
 </file>
@@ -122,6 +122,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF638EC6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -170,9 +175,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
+              <a:srgbClr val="638EC6">
+                <a:alpha val="69804"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -202,7 +207,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -276,7 +281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Not potentially understanably by patients</c:v>
+                  <c:v>Not potentially understandable by patients</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -315,7 +320,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -434,7 +439,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2125652192"/>
@@ -451,31 +456,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="15000"/>
-                      <a:lumOff val="85000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -501,7 +481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2125651360"/>
@@ -517,7 +497,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -540,7 +520,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -575,7 +555,7 @@
           <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1515,15 +1495,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="131" zoomScaleNormal="109" zoomScaleSheetLayoutView="131" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="12" max="12" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="93.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +1525,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="78" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
